--- a/QuantLibXL/Data2/XLS/EUR_SynthDepoQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_SynthDepoQuotesFeed.xlsx
@@ -227,10 +227,10 @@
     <t>DayCounter</t>
   </si>
   <si>
-    <t>***='C:\Users\erik\Documents\repos\launcher\R010202\Workbooks\MarketData\ReutersFeed\EUR_InterestRateQuotesFeed.xls'!TriggerCounter</t>
+    <t>='C:\Users\erik\Documents\repos\launcher\R010202\Workbooks\MarketData\ReutersFeed\EUR_InterestRateQuotesFeed.xls'!TriggerCounter</t>
   </si>
   <si>
-    <t>***='C:\Users\erik\Documents\repos\launcher\R010202\Workbooks\MarketData\ReutersFeed\EUR_MMIndicesAddLastFixing.xls'!TriggerCounter</t>
+    <t>='C:\Users\erik\Documents\repos\launcher\R010202\Workbooks\MarketData\ReutersFeed\EUR_MMIndicesAddLastFixing.xls'!TriggerCounter</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="52"/>
@@ -2084,8 +2084,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="CommandButton1">
+        <control shapeId="3074" r:id="rId4" name="CommandButton2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId4" name="CommandButton2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId6" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2104,32 +2129,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="CommandButton2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="CommandButton2"/>
+        <control shapeId="3073" r:id="rId6" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7793,11 +7793,11 @@
       </c>
       <c r="B3" s="86" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00704#0001</v>
-      </c>
-      <c r="C3" s="12" t="b">
+        <v>obj_00744#0000</v>
+      </c>
+      <c r="C3" s="12" t="e">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" s="128" t="str">
         <f>A4&amp;"LastFixing_Quote"</f>
@@ -7870,11 +7870,11 @@
       </c>
       <c r="B4" s="86" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00705#0001</v>
-      </c>
-      <c r="C4" s="12" t="b">
+        <v>obj_00745#0000</v>
+      </c>
+      <c r="C4" s="12" t="e">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>42</v>
@@ -8058,11 +8058,11 @@
       </c>
       <c r="B7" s="86" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00703#0001</v>
-      </c>
-      <c r="C7" s="12" t="b">
+        <v>obj_00742#0000</v>
+      </c>
+      <c r="C7" s="12" t="e">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="D7" s="128" t="str">
         <f>A8&amp;"LastFixing_Quote"</f>
@@ -8147,9 +8147,9 @@
         <f>_xll.qlRateHelperLatestDate($D8,EvaluationDate)</f>
         <v>41772</v>
       </c>
-      <c r="G8" s="134" t="e">
+      <c r="G8" s="134">
         <f>_xll.qlRateHelperRate($D8,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="H8" s="132" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B8,_xll.ohTrigger(C8,InterestRatesTrigger))</f>
@@ -8223,9 +8223,9 @@
         <f>_xll.qlRateHelperLatestDate($D9,EvaluationDate)</f>
         <v>41773</v>
       </c>
-      <c r="G9" s="134" t="e">
+      <c r="G9" s="134">
         <f>_xll.qlRateHelperRate($D9,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="H9" s="132" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B9,_xll.ohTrigger(C9,InterestRatesTrigger))</f>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="G10" s="71">
         <f>_xll.qlRateHelperRate($D10,AllTriggers)</f>
-        <v>3.0500000000001082E-3</v>
+        <v>2.3250000000000215E-3</v>
       </c>
       <c r="H10" s="15" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="G11" s="71">
         <f>_xll.qlRateHelperRate($D11,AllTriggers)</f>
-        <v>2.9749999999999499E-3</v>
+        <v>2.6249999999999885E-3</v>
       </c>
       <c r="H11" s="15" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="G12" s="71">
         <f>_xll.qlRateHelperRate($D12,AllTriggers)</f>
-        <v>3.0599999999999998E-3</v>
+        <v>2.4499999999999999E-3</v>
       </c>
       <c r="H12" s="15" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="G13" s="71">
         <f>_xll.qlRateHelperRate($D13,AllTriggers)</f>
-        <v>2.97E-3</v>
+        <v>2.6800000000000001E-3</v>
       </c>
       <c r="H13" s="15" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
@@ -8678,7 +8678,7 @@
       </c>
       <c r="G14" s="71">
         <f>_xll.qlRateHelperRate($D14,AllTriggers)</f>
-        <v>2.9399999999999999E-3</v>
+        <v>2.9400000000000003E-3</v>
       </c>
       <c r="H14" s="15" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
@@ -8804,11 +8804,11 @@
       </c>
       <c r="B16" s="86" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00702#0001</v>
-      </c>
-      <c r="C16" s="12" t="b">
+        <v>obj_00741#0000</v>
+      </c>
+      <c r="C16" s="12" t="e">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="D16" s="128" t="str">
         <f>PROPER(Currency&amp;IborType)&amp;A16&amp;"LastFixing_Quote"</f>
@@ -8893,9 +8893,9 @@
         <f>_xll.qlRateHelperLatestDate($D17,EvaluationDate)</f>
         <v>41864</v>
       </c>
-      <c r="G17" s="131" t="e">
+      <c r="G17" s="131">
         <f>_xll.qlRateHelperRate($D17,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>3.4299999999999999E-3</v>
       </c>
       <c r="H17" s="132" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B17,_xll.ohTrigger(C17,InterestRatesTrigger))</f>
@@ -8966,9 +8966,9 @@
         <f>_xll.qlRateHelperLatestDate($D18,EvaluationDate)</f>
         <v>41865</v>
       </c>
-      <c r="G18" s="131" t="e">
+      <c r="G18" s="131">
         <f>_xll.qlRateHelperRate($D18,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>3.4399999999999999E-3</v>
       </c>
       <c r="H18" s="132" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B18,_xll.ohTrigger(C18,InterestRatesTrigger))</f>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="G19" s="27">
         <f>_xll.qlRateHelperRate($D19,AllTriggers)</f>
-        <v>4.0200000000000001E-3</v>
+        <v>3.7199999999999998E-3</v>
       </c>
       <c r="H19" s="15" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="G20" s="27">
         <f>_xll.qlRateHelperRate($D20,AllTriggers)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="H20" s="15" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
@@ -9284,7 +9284,7 @@
       </c>
       <c r="G21" s="27">
         <f>_xll.qlRateHelperRate($D21,AllTriggers)</f>
-        <v>4.0100000000000005E-3</v>
+        <v>4.2800000000000008E-3</v>
       </c>
       <c r="H21" s="15" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="G22" s="27">
         <f>_xll.qlRateHelperRate($D22,AllTriggers)</f>
-        <v>4.0300000000000006E-3</v>
+        <v>4.5099999999999993E-3</v>
       </c>
       <c r="H22" s="15" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="G23" s="27">
         <f>_xll.qlRateHelperRate($D23,AllTriggers)</f>
-        <v>4.0500000000000006E-3</v>
+        <v>4.7699999999999999E-3</v>
       </c>
       <c r="H23" s="15" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="G24" s="27">
         <f>_xll.qlRateHelperRate($D24,AllTriggers)</f>
-        <v>4.1399999999999996E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H24" s="15" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
@@ -9638,11 +9638,11 @@
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00701#0001</v>
-      </c>
-      <c r="C26" s="12" t="b">
+        <v>obj_00743#0000</v>
+      </c>
+      <c r="C26" s="12" t="e">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="D26" s="128" t="str">
         <f>PROPER(Currency&amp;IborType)&amp;A26&amp;"LastFixing_Quote"</f>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="G27" s="27">
         <f>_xll.qlRateHelperRate($D27,AllTriggers)</f>
-        <v>6.7400000000000003E-3</v>
+        <v>8.6400000000000001E-3</v>
       </c>
       <c r="H27" s="15" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
